--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83775.33970858538</v>
+        <v>-95136.70805020959</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>3927.102929045127</v>
       </c>
       <c r="C2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="D2" t="n">
         <v>3927.102929045127</v>
@@ -26328,22 +26328,22 @@
         <v>3927.102929045127</v>
       </c>
       <c r="G2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="H2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="I2" t="n">
         <v>3927.102929045127</v>
       </c>
       <c r="J2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="K2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="L2" t="n">
-        <v>3927.102929045127</v>
+        <v>3927.102929045126</v>
       </c>
       <c r="M2" t="n">
         <v>3927.102929045127</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="C6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="D6" t="n">
-        <v>-32645.82426773872</v>
+        <v>-34003.7533645405</v>
       </c>
       <c r="E6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.153364540497</v>
       </c>
       <c r="F6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404975</v>
       </c>
       <c r="G6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404979</v>
       </c>
       <c r="H6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404979</v>
       </c>
       <c r="I6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.153364540497</v>
       </c>
       <c r="J6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404979</v>
       </c>
       <c r="K6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404979</v>
       </c>
       <c r="L6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404979</v>
       </c>
       <c r="M6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404975</v>
       </c>
       <c r="N6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404975</v>
       </c>
       <c r="O6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404975</v>
       </c>
       <c r="P6" t="n">
-        <v>981.775732261282</v>
+        <v>-376.1533645404975</v>
       </c>
     </row>
   </sheetData>
